--- a/document/docs/财富酒庄-电商开发计划.xlsx
+++ b/document/docs/财富酒庄-电商开发计划.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="工作量安排" sheetId="1" r:id="rId1"/>
+    <sheet name="财富酒庄整体工作计划" sheetId="1" r:id="rId1"/>
     <sheet name="客户提前准备事项" sheetId="2" r:id="rId2"/>
+    <sheet name="财务酒庄剩余工作计划" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>功能点</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -323,7 +324,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>酒庄介绍，包括文字、图片、视频</t>
+    <t>部分酒庄介绍，包括文字、图片、视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分商品介绍，包括文字、图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页设计稿确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息-身份证合法性校验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云短信服务申请&amp;充值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号申请&amp;微信支付申请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台微信支付相关接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单明细/编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台商品详情查询接口展示元素调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端页面展示元素调整，需要实际商品数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页酒庄要素调整&amp;优化，需要实际酒庄数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云服务器购买，申请域名&amp;备案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加酒庄游入口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +446,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +486,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -421,8 +494,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -465,16 +540,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -806,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -841,13 +939,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -857,9 +955,9 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
@@ -867,9 +965,9 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
@@ -877,9 +975,9 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
@@ -889,11 +987,11 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -903,9 +1001,9 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
@@ -915,9 +1013,9 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -927,9 +1025,9 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
@@ -939,9 +1037,9 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -951,9 +1049,9 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -963,9 +1061,9 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -975,9 +1073,9 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
@@ -985,9 +1083,9 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
@@ -995,9 +1093,9 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1005,9 +1103,9 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1017,9 +1115,9 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1029,9 +1127,9 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1039,9 +1137,9 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1049,9 +1147,9 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1059,9 +1157,9 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="4" t="s">
         <v>32</v>
       </c>
@@ -1069,9 +1167,9 @@
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1081,13 +1179,13 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -1097,9 +1195,9 @@
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="7" t="s">
         <v>38</v>
       </c>
@@ -1109,9 +1207,9 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="15"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1121,9 +1219,9 @@
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="7" t="s">
         <v>41</v>
       </c>
@@ -1131,9 +1229,9 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7" t="s">
         <v>42</v>
       </c>
@@ -1143,9 +1241,9 @@
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1155,9 +1253,9 @@
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="7" t="s">
         <v>48</v>
       </c>
@@ -1167,9 +1265,9 @@
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1179,9 +1277,9 @@
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="7" t="s">
         <v>46</v>
       </c>
@@ -1191,9 +1289,9 @@
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -1203,9 +1301,9 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="15"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="7" t="s">
         <v>51</v>
       </c>
@@ -1215,9 +1313,9 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="15"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -1227,9 +1325,9 @@
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="15"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="7" t="s">
         <v>54</v>
       </c>
@@ -1239,9 +1337,9 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -1251,9 +1349,9 @@
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="7" t="s">
         <v>57</v>
       </c>
@@ -1263,8 +1361,8 @@
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1277,8 +1375,8 @@
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="5" t="s">
         <v>52</v>
       </c>
@@ -1289,8 +1387,8 @@
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="5" t="s">
         <v>62</v>
       </c>
@@ -1304,6 +1402,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C34:C35"/>
@@ -1322,7 +1421,6 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1337,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1437,6 +1535,17 @@
         <v>73</v>
       </c>
     </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1446,4 +1555,545 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="6">
+        <v>42939</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6">
+        <v>42941</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="6">
+        <v>42943</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6">
+        <v>42945</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="6">
+        <v>42952</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="6">
+        <v>42958</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="6">
+        <v>42963</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="6">
+        <v>42968</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="6">
+        <v>42970</v>
+      </c>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="6">
+        <v>42972</v>
+      </c>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="17"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="17"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="6">
+        <v>42975</v>
+      </c>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="17"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="17"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="6">
+        <v>42978</v>
+      </c>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="17"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="17"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="6">
+        <v>42981</v>
+      </c>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="17"/>
+      <c r="B39" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="17"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="17"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="6">
+        <v>42984</v>
+      </c>
+      <c r="F41" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A24:A41"/>
+    <mergeCell ref="B24:B38"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B7:B23"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C18:C23"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/document/docs/财富酒庄-电商开发计划.xlsx
+++ b/document/docs/财富酒庄-电商开发计划.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\git\sxjiang\wine\wine\document\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14580" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="财富酒庄整体工作计划" sheetId="1" r:id="rId1"/>
     <sheet name="客户提前准备事项" sheetId="2" r:id="rId2"/>
     <sheet name="财务酒庄剩余工作计划" sheetId="3" r:id="rId3"/>
+    <sheet name="需求更新工作量列表" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">需求更新工作量列表!$E$1:$E$41</definedName>
+  </definedNames>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="140">
   <si>
     <t>功能点</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -386,12 +395,188 @@
   <si>
     <t>添加酒庄游入口</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒庄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒庄级别:(酒庄级别介绍)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒庄名称（中英文）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒庄得奖照片或视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒庄招聘及视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒庄文字简介</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人（原庄主）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植面积</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄种植种类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植地照片</t>
+  </si>
+  <si>
+    <t>每种葡萄平均树龄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时土壤</t>
+  </si>
+  <si>
+    <t>气候信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专职酿酒师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年产量</t>
+  </si>
+  <si>
+    <t>部分证照（生产许可证、经营许可证、流通备案）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒庄游，链接旅游产品（参观预约）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品照片或视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒名（中、英文）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒品类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄品种（葡萄品种介绍+）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产年份</t>
+  </si>
+  <si>
+    <t>所得奖项：所得奖项名称（得奖照片）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保质期（1、储藏能力、2、建议储藏温度）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒精度</t>
+  </si>
+  <si>
+    <t>平均树龄</t>
+  </si>
+  <si>
+    <t>葡萄种植区照片简介</t>
+  </si>
+  <si>
+    <t>酿酒师</t>
+  </si>
+  <si>
+    <t>容量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酿造工艺（1、葡萄种植土壤及气候数据、2、储存历史数据酿造</t>
+  </si>
+  <si>
+    <t>橡木桶 （1、品牌、2、年份、3、产地）</t>
+  </si>
+  <si>
+    <t>罐装时间</t>
+  </si>
+  <si>
+    <t>适饮温度</t>
+  </si>
+  <si>
+    <t>建议醒酒时间</t>
+  </si>
+  <si>
+    <t>最佳搭配推荐</t>
+  </si>
+  <si>
+    <t>酒的产量</t>
+  </si>
+  <si>
+    <t>酒庄库存量</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -497,7 +682,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,12 +730,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -563,20 +742,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -908,17 +1110,17 @@
       <selection sqref="A1:F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1">
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -938,14 +1140,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -954,30 +1156,30 @@
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
@@ -986,12 +1188,12 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1000,10 +1202,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1012,10 +1214,10 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16" t="s">
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1024,10 +1226,10 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1036,10 +1238,10 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16" t="s">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1048,10 +1250,10 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1060,10 +1262,10 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16" t="s">
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1072,40 +1274,40 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1114,10 +1316,10 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16" t="s">
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1126,50 +1328,50 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1178,14 +1380,14 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -1194,10 +1396,10 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="17"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="22"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="7" t="s">
         <v>38</v>
       </c>
@@ -1206,10 +1408,10 @@
       </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="17"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="22"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1218,20 +1420,20 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="17"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="22"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="17"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="22"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="7" t="s">
         <v>42</v>
       </c>
@@ -1240,10 +1442,10 @@
       </c>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="17"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="22"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1252,10 +1454,10 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="17"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="22"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="7" t="s">
         <v>48</v>
       </c>
@@ -1264,10 +1466,10 @@
       </c>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="22"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1276,10 +1478,10 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="17"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="22"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="7" t="s">
         <v>46</v>
       </c>
@@ -1288,10 +1490,10 @@
       </c>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="17"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="22"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -1300,10 +1502,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="17"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="22"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="7" t="s">
         <v>51</v>
       </c>
@@ -1312,10 +1514,10 @@
       </c>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="22"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -1324,10 +1526,10 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="17"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="22"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="7" t="s">
         <v>54</v>
       </c>
@@ -1336,10 +1538,10 @@
       </c>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="17"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="22"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -1348,10 +1550,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="17"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="22"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="7" t="s">
         <v>57</v>
       </c>
@@ -1360,9 +1562,9 @@
       </c>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="17"/>
-      <c r="B38" s="16" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="22"/>
+      <c r="B38" s="21" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1374,9 +1576,9 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="17"/>
-      <c r="B39" s="16"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="22"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="5" t="s">
         <v>52</v>
       </c>
@@ -1386,9 +1588,9 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="17"/>
-      <c r="B40" s="16"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="22"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="5" t="s">
         <v>62</v>
       </c>
@@ -1402,25 +1604,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C16"/>
     <mergeCell ref="A2:A22"/>
     <mergeCell ref="B6:B22"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B23:B37"/>
     <mergeCell ref="A23:A40"/>
     <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C17:C22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1441,13 +1643,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="13"/>
-    <col min="2" max="2" width="86.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="13"/>
+    <col min="2" max="2" width="86.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>65</v>
       </c>
@@ -1458,7 +1660,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1469,7 +1671,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1480,7 +1682,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1491,7 +1693,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1502,7 +1704,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1513,7 +1715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1524,7 +1726,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1535,7 +1737,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1561,20 +1763,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="62.375" customWidth="1"/>
+    <col min="5" max="5" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -1594,14 +1796,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1610,41 +1812,41 @@
       <c r="E2" s="6"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="22" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="22" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="20" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="22" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="20" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="6">
@@ -1652,25 +1854,25 @@
       </c>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="6">
@@ -1678,22 +1880,22 @@
       </c>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="4" t="s">
         <v>87</v>
       </c>
@@ -1702,23 +1904,23 @@
       </c>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="18" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="6">
@@ -1726,53 +1928,53 @@
       </c>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="19" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="19" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="22" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="20" t="s">
         <v>84</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="19" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="17" t="s">
         <v>85</v>
       </c>
       <c r="E17" s="6">
@@ -1780,10 +1982,10 @@
       </c>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1792,51 +1994,51 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="17" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="19" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="17" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="19" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="19" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="6">
@@ -1844,27 +2046,27 @@
       </c>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="17"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="20" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="22"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="6">
@@ -1872,33 +2074,33 @@
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="17"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="18" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="22"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="17"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="20" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="22"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="18" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="17"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="20" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="22"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="6">
@@ -1906,23 +2108,23 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="17"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="18" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="22"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="18" t="s">
         <v>44</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="20" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="22"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E30" s="6">
@@ -1930,23 +2132,23 @@
       </c>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="17"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="18" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="22"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="18" t="s">
         <v>47</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="17"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="20" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="22"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="18" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="6">
@@ -1954,23 +2156,23 @@
       </c>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="17"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="18" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="22"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="18" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="20" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="22"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="18" t="s">
         <v>86</v>
       </c>
       <c r="E34" s="6">
@@ -1978,23 +2180,23 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="17"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="18" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="22"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="18" t="s">
         <v>53</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="17"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="20" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="22"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E36" s="6">
@@ -2002,10 +2204,10 @@
       </c>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="17"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="22"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -2014,10 +2216,10 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="17"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="22"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="7" t="s">
         <v>57</v>
       </c>
@@ -2026,35 +2228,35 @@
       </c>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="17"/>
-      <c r="B39" s="16" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="22"/>
+      <c r="B39" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>60</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="17"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="21" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="22"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="17"/>
-      <c r="B41" s="16"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="22"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="14" t="s">
         <v>62</v>
       </c>
@@ -2068,6 +2270,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B7:B23"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C18:C23"/>
     <mergeCell ref="A24:A41"/>
     <mergeCell ref="B24:B38"/>
     <mergeCell ref="C24:C25"/>
@@ -2078,15 +2289,6 @@
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B7:B23"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C18:C23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2096,4 +2298,500 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="56.5" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="24"/>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="24"/>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="24"/>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="24"/>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="24"/>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="24"/>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="E1:E41"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="B2:B41"/>
+    <mergeCell ref="C2:C19"/>
+    <mergeCell ref="C20:C41"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/docs/财富酒庄-电商开发计划.xlsx
+++ b/document/docs/财富酒庄-电商开发计划.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\git\sxjiang\wine\wine\document\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14580" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
@@ -20,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">需求更新工作量列表!$E$1:$E$41</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -453,131 +448,135 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>种植面积</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄种植种类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植地照片</t>
+  </si>
+  <si>
+    <t>每种葡萄平均树龄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时土壤</t>
+  </si>
+  <si>
+    <t>气候信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专职酿酒师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年产量</t>
+  </si>
+  <si>
+    <t>部分证照（生产许可证、经营许可证、流通备案）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品照片或视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒名（中、英文）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒品类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄品种（葡萄品种介绍+）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产年份</t>
+  </si>
+  <si>
+    <t>所得奖项：所得奖项名称（得奖照片）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒精度</t>
+  </si>
+  <si>
+    <t>平均树龄</t>
+  </si>
+  <si>
+    <t>酿酒师</t>
+  </si>
+  <si>
+    <t>容量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>适饮温度</t>
+  </si>
+  <si>
+    <t>建议醒酒时间</t>
+  </si>
+  <si>
+    <t>最佳搭配推荐</t>
+  </si>
+  <si>
+    <t>酒的产量</t>
+  </si>
+  <si>
+    <t>酒庄库存量</t>
+  </si>
+  <si>
+    <t>保质期（1、储藏能力、2、建议储藏温度）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酿造工艺（1、葡萄种植土壤及气候数据、2、储存历史数据酿造</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡木桶 （1、品牌、2、年份、3、产地）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罐装时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄种植区照片简介</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒庄游，链接旅游产品（参观预约）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>营业执照</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>种植面积</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>葡萄种植种类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>种植地照片</t>
-  </si>
-  <si>
-    <t>每种葡萄平均树龄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时土壤</t>
-  </si>
-  <si>
-    <t>气候信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>专职酿酒师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年产量</t>
-  </si>
-  <si>
-    <t>部分证照（生产许可证、经营许可证、流通备案）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒庄游，链接旅游产品（参观预约）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品照片或视频</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒名（中、英文）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒品类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>葡萄品种（葡萄品种介绍+）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产年份</t>
-  </si>
-  <si>
-    <t>所得奖项：所得奖项名称（得奖照片）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保质期（1、储藏能力、2、建议储藏温度）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒精度</t>
-  </si>
-  <si>
-    <t>平均树龄</t>
-  </si>
-  <si>
-    <t>葡萄种植区照片简介</t>
-  </si>
-  <si>
-    <t>酿酒师</t>
-  </si>
-  <si>
-    <t>容量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>酿造工艺（1、葡萄种植土壤及气候数据、2、储存历史数据酿造</t>
-  </si>
-  <si>
-    <t>橡木桶 （1、品牌、2、年份、3、产地）</t>
-  </si>
-  <si>
-    <t>罐装时间</t>
-  </si>
-  <si>
-    <t>适饮温度</t>
-  </si>
-  <si>
-    <t>建议醒酒时间</t>
-  </si>
-  <si>
-    <t>最佳搭配推荐</t>
-  </si>
-  <si>
-    <t>酒的产量</t>
-  </si>
-  <si>
-    <t>酒庄库存量</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -620,8 +619,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,6 +649,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,7 +700,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,7 +772,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1604,6 +1627,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="A23:A40"/>
+    <mergeCell ref="B38:B40"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C27"/>
@@ -1612,12 +1641,6 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C16"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="B6:B22"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B23:B37"/>
-    <mergeCell ref="A23:A40"/>
-    <mergeCell ref="B38:B40"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
@@ -1626,7 +1649,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2270,15 +2293,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B7:B23"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C18:C23"/>
     <mergeCell ref="A24:A41"/>
     <mergeCell ref="B24:B38"/>
     <mergeCell ref="C24:C25"/>
@@ -2289,6 +2303,15 @@
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B7:B23"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C18:C23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2305,7 +2328,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2377,7 +2400,7 @@
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="28" t="s">
         <v>102</v>
       </c>
       <c r="E5" s="16" t="s">
@@ -2399,7 +2422,7 @@
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="24"/>
-      <c r="D7" t="s">
+      <c r="D7" s="27" t="s">
         <v>104</v>
       </c>
       <c r="E7" s="16" t="s">
@@ -2422,7 +2445,7 @@
       <c r="B9" s="21"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>98</v>
@@ -2433,7 +2456,7 @@
       <c r="B10" s="21"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>98</v>
@@ -2444,7 +2467,7 @@
       <c r="B11" s="21"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>97</v>
@@ -2454,8 +2477,8 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="24"/>
-      <c r="D12" t="s">
-        <v>109</v>
+      <c r="D12" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>98</v>
@@ -2466,7 +2489,7 @@
       <c r="B13" s="21"/>
       <c r="C13" s="24"/>
       <c r="D13" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>97</v>
@@ -2476,8 +2499,8 @@
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="24"/>
-      <c r="D14" t="s">
-        <v>111</v>
+      <c r="D14" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>97</v>
@@ -2488,7 +2511,7 @@
       <c r="B15" s="21"/>
       <c r="C15" s="24"/>
       <c r="D15" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>98</v>
@@ -2499,18 +2522,18 @@
       <c r="B16" s="21"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="24"/>
-      <c r="D17" t="s">
-        <v>115</v>
+      <c r="D17" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>97</v>
@@ -2520,8 +2543,8 @@
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="8" t="s">
-        <v>116</v>
+      <c r="D18" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>98</v>
@@ -2532,7 +2555,7 @@
       <c r="B19" s="21"/>
       <c r="C19" s="24"/>
       <c r="D19" s="25" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>98</v>
@@ -2545,7 +2568,7 @@
         <v>95</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>97</v>
@@ -2556,7 +2579,7 @@
       <c r="B21" s="21"/>
       <c r="C21" s="24"/>
       <c r="D21" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>97</v>
@@ -2567,7 +2590,7 @@
       <c r="B22" s="21"/>
       <c r="C22" s="24"/>
       <c r="D22" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>97</v>
@@ -2578,7 +2601,7 @@
       <c r="B23" s="21"/>
       <c r="C23" s="24"/>
       <c r="D23" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>97</v>
@@ -2589,7 +2612,7 @@
       <c r="B24" s="21"/>
       <c r="C24" s="24"/>
       <c r="D24" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>97</v>
@@ -2600,18 +2623,18 @@
       <c r="B25" s="21"/>
       <c r="C25" s="24"/>
       <c r="D25" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="24"/>
-      <c r="D26" t="s">
-        <v>124</v>
+      <c r="D26" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>97</v>
@@ -2622,7 +2645,7 @@
       <c r="B27" s="21"/>
       <c r="C27" s="24"/>
       <c r="D27" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>98</v>
@@ -2633,7 +2656,7 @@
       <c r="B28" s="21"/>
       <c r="C28" s="24"/>
       <c r="D28" s="25" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>98</v>
@@ -2643,8 +2666,8 @@
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="24"/>
-      <c r="D29" s="8" t="s">
-        <v>127</v>
+      <c r="D29" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>97</v>
@@ -2654,8 +2677,8 @@
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="8" t="s">
-        <v>128</v>
+      <c r="D30" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>97</v>
@@ -2665,8 +2688,8 @@
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="8" t="s">
-        <v>129</v>
+      <c r="D31" s="26" t="s">
+        <v>137</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>98</v>
@@ -2676,19 +2699,19 @@
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="8" t="s">
-        <v>130</v>
+      <c r="D32" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="8" t="s">
-        <v>131</v>
+      <c r="D33" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>97</v>
@@ -2698,8 +2721,8 @@
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="24"/>
-      <c r="D34" t="s">
-        <v>132</v>
+      <c r="D34" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>98</v>
@@ -2709,19 +2732,19 @@
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="24"/>
-      <c r="D35" s="8" t="s">
-        <v>133</v>
+      <c r="D35" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="24"/>
-      <c r="D36" s="8" t="s">
-        <v>134</v>
+      <c r="D36" s="26" t="s">
+        <v>136</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>98</v>
@@ -2731,8 +2754,8 @@
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="24"/>
-      <c r="D37" s="8" t="s">
-        <v>135</v>
+      <c r="D37" s="26" t="s">
+        <v>128</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>98</v>
@@ -2742,8 +2765,8 @@
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="24"/>
-      <c r="D38" s="8" t="s">
-        <v>136</v>
+      <c r="D38" s="26" t="s">
+        <v>129</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>98</v>
@@ -2753,8 +2776,8 @@
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="24"/>
-      <c r="D39" s="8" t="s">
-        <v>137</v>
+      <c r="D39" s="26" t="s">
+        <v>130</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>98</v>
@@ -2764,8 +2787,8 @@
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="24"/>
-      <c r="D40" s="8" t="s">
-        <v>138</v>
+      <c r="D40" s="26" t="s">
+        <v>131</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>98</v>
@@ -2775,8 +2798,8 @@
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="24"/>
-      <c r="D41" s="8" t="s">
-        <v>139</v>
+      <c r="D41" s="26" t="s">
+        <v>132</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>98</v>

--- a/document/docs/财富酒庄-电商开发计划.xlsx
+++ b/document/docs/财富酒庄-电商开发计划.xlsx
@@ -432,10 +432,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>酒庄招聘及视频</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>酒庄文字简介</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -569,6 +565,10 @@
   </si>
   <si>
     <t>营业执照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒庄照片及视频</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,12 +655,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,6 +754,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,12 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1164,13 +1158,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1180,9 +1174,9 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1190,9 +1184,9 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1200,9 +1194,9 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
@@ -1212,11 +1206,11 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1226,9 +1220,9 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1238,9 +1232,9 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1250,9 +1244,9 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1262,9 +1256,9 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1274,9 +1268,9 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1286,9 +1280,9 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1298,9 +1292,9 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1308,9 +1302,9 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1318,9 +1312,9 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1328,9 +1322,9 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1340,9 +1334,9 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1352,9 +1346,9 @@
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1362,9 +1356,9 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1372,9 +1366,9 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1382,9 +1376,9 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="4" t="s">
         <v>32</v>
       </c>
@@ -1392,9 +1386,9 @@
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1404,13 +1398,13 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="24" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -1420,9 +1414,9 @@
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="7" t="s">
         <v>38</v>
       </c>
@@ -1432,9 +1426,9 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1444,9 +1438,9 @@
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="7" t="s">
         <v>41</v>
       </c>
@@ -1454,9 +1448,9 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="7" t="s">
         <v>42</v>
       </c>
@@ -1466,9 +1460,9 @@
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1478,9 +1472,9 @@
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="7" t="s">
         <v>48</v>
       </c>
@@ -1490,9 +1484,9 @@
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1502,9 +1496,9 @@
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="7" t="s">
         <v>46</v>
       </c>
@@ -1514,9 +1508,9 @@
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="22"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -1526,9 +1520,9 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="22"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="7" t="s">
         <v>51</v>
       </c>
@@ -1538,9 +1532,9 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="22"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -1550,9 +1544,9 @@
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="22"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="7" t="s">
         <v>54</v>
       </c>
@@ -1562,9 +1556,9 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -1574,9 +1568,9 @@
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="22"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="7" t="s">
         <v>57</v>
       </c>
@@ -1586,8 +1580,8 @@
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
-      <c r="B38" s="21" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="24" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1600,8 +1594,8 @@
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
         <v>52</v>
       </c>
@@ -1612,8 +1606,8 @@
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="22"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="5" t="s">
         <v>62</v>
       </c>
@@ -1627,12 +1621,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="B6:B22"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B23:B37"/>
-    <mergeCell ref="A23:A40"/>
-    <mergeCell ref="B38:B40"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C27"/>
@@ -1646,6 +1634,12 @@
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C17:C22"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B6:B22"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="A23:A40"/>
+    <mergeCell ref="B38:B40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1820,13 +1814,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1836,9 +1830,9 @@
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="4" t="s">
         <v>91</v>
       </c>
@@ -1846,9 +1840,9 @@
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="20" t="s">
         <v>89</v>
       </c>
@@ -1856,9 +1850,9 @@
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="20" t="s">
         <v>90</v>
       </c>
@@ -1866,9 +1860,9 @@
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="20" t="s">
         <v>83</v>
       </c>
@@ -1878,11 +1872,11 @@
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -1892,9 +1886,9 @@
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="17" t="s">
         <v>9</v>
       </c>
@@ -1904,9 +1898,9 @@
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="20" t="s">
@@ -1916,9 +1910,9 @@
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="4" t="s">
         <v>87</v>
       </c>
@@ -1928,9 +1922,9 @@
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="23" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -1940,9 +1934,9 @@
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="17" t="s">
         <v>13</v>
       </c>
@@ -1952,9 +1946,9 @@
       <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -1964,9 +1958,9 @@
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="17" t="s">
         <v>17</v>
       </c>
@@ -1974,9 +1968,9 @@
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="17" t="s">
         <v>19</v>
       </c>
@@ -1984,9 +1978,9 @@
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="20" t="s">
         <v>84</v>
       </c>
@@ -1994,9 +1988,9 @@
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="17" t="s">
         <v>85</v>
       </c>
@@ -2006,9 +2000,9 @@
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -2018,9 +2012,9 @@
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="17" t="s">
         <v>29</v>
       </c>
@@ -2028,9 +2022,9 @@
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="17" t="s">
         <v>30</v>
       </c>
@@ -2038,9 +2032,9 @@
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="17" t="s">
         <v>31</v>
       </c>
@@ -2048,9 +2042,9 @@
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="17" t="s">
         <v>32</v>
       </c>
@@ -2058,9 +2052,9 @@
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="17" t="s">
         <v>27</v>
       </c>
@@ -2070,13 +2064,13 @@
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="18" t="s">
@@ -2086,9 +2080,9 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="23"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="18" t="s">
         <v>38</v>
       </c>
@@ -2098,9 +2092,9 @@
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="23" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="26" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="18" t="s">
@@ -2110,9 +2104,9 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="18" t="s">
         <v>41</v>
       </c>
@@ -2120,9 +2114,9 @@
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="23"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="18" t="s">
         <v>42</v>
       </c>
@@ -2132,9 +2126,9 @@
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="23" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="26" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="18" t="s">
@@ -2144,9 +2138,9 @@
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="23"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="18" t="s">
         <v>48</v>
       </c>
@@ -2156,9 +2150,9 @@
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="23" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="26" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="18" t="s">
@@ -2168,9 +2162,9 @@
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="22"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="23"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="18" t="s">
         <v>46</v>
       </c>
@@ -2180,9 +2174,9 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="22"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="23" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="18" t="s">
@@ -2192,9 +2186,9 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="22"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="23"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="18" t="s">
         <v>86</v>
       </c>
@@ -2204,9 +2198,9 @@
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="22"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="23" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="26" t="s">
         <v>52</v>
       </c>
       <c r="D35" s="18" t="s">
@@ -2216,9 +2210,9 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="23"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="18" t="s">
         <v>54</v>
       </c>
@@ -2228,9 +2222,9 @@
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="22"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -2240,9 +2234,9 @@
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="22"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="7" t="s">
         <v>57</v>
       </c>
@@ -2252,8 +2246,8 @@
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="22"/>
-      <c r="B39" s="21" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="24" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="19" t="s">
@@ -2266,8 +2260,8 @@
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="22"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="19" t="s">
         <v>52</v>
       </c>
@@ -2278,8 +2272,8 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="22"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="14" t="s">
         <v>62</v>
       </c>
@@ -2293,6 +2287,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B7:B23"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C18:C23"/>
     <mergeCell ref="A24:A41"/>
     <mergeCell ref="B24:B38"/>
     <mergeCell ref="C24:C25"/>
@@ -2303,15 +2306,6 @@
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B7:B23"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C18:C23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2328,7 +2322,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2358,16 +2352,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="21" t="s">
         <v>100</v>
       </c>
       <c r="E2" s="16" t="s">
@@ -2375,10 +2369,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="21" t="s">
         <v>99</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -2386,10 +2380,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="21" t="s">
         <v>101</v>
       </c>
       <c r="E4" s="16" t="s">
@@ -2397,409 +2391,409 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="28" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25" t="s">
-        <v>103</v>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="27" t="s">
-        <v>104</v>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25" t="s">
-        <v>105</v>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25" t="s">
-        <v>139</v>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25" t="s">
-        <v>106</v>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25" t="s">
-        <v>107</v>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="27" t="s">
-        <v>108</v>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25" t="s">
-        <v>109</v>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="27" t="s">
-        <v>110</v>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25" t="s">
-        <v>111</v>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="16" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="23" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="27" t="s">
-        <v>114</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="26" t="s">
-        <v>115</v>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25" t="s">
-        <v>138</v>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="24" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>116</v>
+      <c r="D20" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25" t="s">
-        <v>117</v>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="21" t="s">
+        <v>116</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25" t="s">
-        <v>118</v>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25" t="s">
-        <v>119</v>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="21" t="s">
+        <v>118</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25" t="s">
-        <v>120</v>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="23" t="s">
         <v>121</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="27" t="s">
-        <v>122</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25" t="s">
-        <v>123</v>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25" t="s">
-        <v>133</v>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="26" t="s">
-        <v>124</v>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="26" t="s">
-        <v>125</v>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="26" t="s">
-        <v>137</v>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="26" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="22" t="s">
         <v>126</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="26" t="s">
-        <v>127</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="27" t="s">
-        <v>134</v>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="26" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="22" t="s">
         <v>135</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="26" t="s">
-        <v>136</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="26" t="s">
-        <v>128</v>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="26" t="s">
-        <v>129</v>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="26" t="s">
-        <v>130</v>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="26" t="s">
-        <v>131</v>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="26" t="s">
-        <v>132</v>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>98</v>
